--- a/Model/BayesLSTM/Univariate/result/Service/CHN.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/CHN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>47.25038909912109</v>
+        <v>38.27469253540039</v>
       </c>
       <c r="C2" t="n">
-        <v>41.77436447143555</v>
+        <v>35.44901657104492</v>
       </c>
       <c r="D2" t="n">
-        <v>52.72641372680664</v>
+        <v>41.10036849975586</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>44.11285400390625</v>
+        <v>37.99655914306641</v>
       </c>
       <c r="C3" t="n">
-        <v>38.79538345336914</v>
+        <v>34.76157760620117</v>
       </c>
       <c r="D3" t="n">
-        <v>49.43032455444336</v>
+        <v>41.23154067993164</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>44.2904167175293</v>
+        <v>38.34174346923828</v>
       </c>
       <c r="C4" t="n">
-        <v>37.82528686523438</v>
+        <v>35.23587036132812</v>
       </c>
       <c r="D4" t="n">
-        <v>50.75554656982422</v>
+        <v>41.44761657714844</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>44.16525268554688</v>
+        <v>38.59599304199219</v>
       </c>
       <c r="C5" t="n">
-        <v>37.96260833740234</v>
+        <v>35.68793487548828</v>
       </c>
       <c r="D5" t="n">
-        <v>50.36789703369141</v>
+        <v>41.50405120849609</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>44.18224334716797</v>
+        <v>38.77371215820312</v>
       </c>
       <c r="C6" t="n">
-        <v>37.75957107543945</v>
+        <v>35.14591217041016</v>
       </c>
       <c r="D6" t="n">
-        <v>50.60491561889648</v>
+        <v>42.40151214599609</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>44.06966781616211</v>
+        <v>38.32910537719727</v>
       </c>
       <c r="C7" t="n">
-        <v>35.87232208251953</v>
+        <v>34.26452255249023</v>
       </c>
       <c r="D7" t="n">
-        <v>52.26701354980469</v>
+        <v>42.3936882019043</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>44.30812072753906</v>
+        <v>38.40572357177734</v>
       </c>
       <c r="C8" t="n">
-        <v>34.42335510253906</v>
+        <v>34.44332885742188</v>
       </c>
       <c r="D8" t="n">
-        <v>54.19288635253906</v>
+        <v>42.36811828613281</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>44.54389572143555</v>
+        <v>38.45558547973633</v>
       </c>
       <c r="C9" t="n">
-        <v>35.00527954101562</v>
+        <v>34.16110992431641</v>
       </c>
       <c r="D9" t="n">
-        <v>54.08251190185547</v>
+        <v>42.75006103515625</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>44.10918426513672</v>
+        <v>38.32979965209961</v>
       </c>
       <c r="C10" t="n">
-        <v>35.34762573242188</v>
+        <v>33.88505935668945</v>
       </c>
       <c r="D10" t="n">
-        <v>52.87074279785156</v>
+        <v>42.77453994750977</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>43.48434448242188</v>
+        <v>38.55692291259766</v>
       </c>
       <c r="C11" t="n">
-        <v>34.61851501464844</v>
+        <v>34.22897720336914</v>
       </c>
       <c r="D11" t="n">
-        <v>52.35017395019531</v>
+        <v>42.88486862182617</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>42.87086868286133</v>
+        <v>38.22423553466797</v>
       </c>
       <c r="C12" t="n">
-        <v>33.98767471313477</v>
+        <v>34.25370025634766</v>
       </c>
       <c r="D12" t="n">
-        <v>51.75406265258789</v>
+        <v>42.19477081298828</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>43.51891326904297</v>
+        <v>38.82003402709961</v>
       </c>
       <c r="C13" t="n">
-        <v>36.62002563476562</v>
+        <v>34.92138290405273</v>
       </c>
       <c r="D13" t="n">
-        <v>50.41780090332031</v>
+        <v>42.71868515014648</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>44.01179122924805</v>
+        <v>38.70199966430664</v>
       </c>
       <c r="C14" t="n">
-        <v>37.5716667175293</v>
+        <v>35.49947738647461</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4519157409668</v>
+        <v>41.90452194213867</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>42.77135467529297</v>
+        <v>39.24584197998047</v>
       </c>
       <c r="C15" t="n">
-        <v>34.70028305053711</v>
+        <v>35.69671249389648</v>
       </c>
       <c r="D15" t="n">
-        <v>50.84242630004883</v>
+        <v>42.79497146606445</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>43.00991058349609</v>
+        <v>39.42675018310547</v>
       </c>
       <c r="C16" t="n">
-        <v>35.49443054199219</v>
+        <v>35.5339241027832</v>
       </c>
       <c r="D16" t="n">
-        <v>50.525390625</v>
+        <v>43.31957626342773</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>42.67870330810547</v>
+        <v>39.34854507446289</v>
       </c>
       <c r="C17" t="n">
-        <v>34.089111328125</v>
+        <v>35.17642974853516</v>
       </c>
       <c r="D17" t="n">
-        <v>51.26829528808594</v>
+        <v>43.52066040039062</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>42.84357452392578</v>
+        <v>39.5140380859375</v>
       </c>
       <c r="C18" t="n">
-        <v>34.24980163574219</v>
+        <v>34.89611053466797</v>
       </c>
       <c r="D18" t="n">
-        <v>51.43734741210938</v>
+        <v>44.13196563720703</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>44.14842987060547</v>
+        <v>38.60897064208984</v>
       </c>
       <c r="C19" t="n">
-        <v>37.36802673339844</v>
+        <v>34.62606811523438</v>
       </c>
       <c r="D19" t="n">
-        <v>50.9288330078125</v>
+        <v>42.59187316894531</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>43.92878723144531</v>
+        <v>37.65480422973633</v>
       </c>
       <c r="C20" t="n">
-        <v>36.81797790527344</v>
+        <v>33.65092468261719</v>
       </c>
       <c r="D20" t="n">
-        <v>51.03959655761719</v>
+        <v>41.65868377685547</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>42.72917175292969</v>
+        <v>38.49327850341797</v>
       </c>
       <c r="C21" t="n">
-        <v>33.7476921081543</v>
+        <v>33.76045608520508</v>
       </c>
       <c r="D21" t="n">
-        <v>51.71065139770508</v>
+        <v>43.22610092163086</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>42.03946685791016</v>
+        <v>38.44290924072266</v>
       </c>
       <c r="C22" t="n">
-        <v>32.0998420715332</v>
+        <v>35.22014617919922</v>
       </c>
       <c r="D22" t="n">
-        <v>51.97909164428711</v>
+        <v>41.66567230224609</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>42.62993621826172</v>
+        <v>38.41413879394531</v>
       </c>
       <c r="C23" t="n">
-        <v>32.25576782226562</v>
+        <v>34.64889526367188</v>
       </c>
       <c r="D23" t="n">
-        <v>53.00410461425781</v>
+        <v>42.17938232421875</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>41.8144416809082</v>
+        <v>38.55059432983398</v>
       </c>
       <c r="C24" t="n">
-        <v>32.11540985107422</v>
+        <v>34.14522552490234</v>
       </c>
       <c r="D24" t="n">
-        <v>51.51347351074219</v>
+        <v>42.95596313476562</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>42.81380081176758</v>
+        <v>38.40921401977539</v>
       </c>
       <c r="C25" t="n">
-        <v>32.44629287719727</v>
+        <v>34.12153625488281</v>
       </c>
       <c r="D25" t="n">
-        <v>53.18130874633789</v>
+        <v>42.69689178466797</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>42.76445388793945</v>
+        <v>38.23019027709961</v>
       </c>
       <c r="C26" t="n">
-        <v>31.07062721252441</v>
+        <v>34.37757873535156</v>
       </c>
       <c r="D26" t="n">
-        <v>54.45828247070312</v>
+        <v>42.08280181884766</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>42.81958770751953</v>
+        <v>38.0307731628418</v>
       </c>
       <c r="C27" t="n">
-        <v>31.49245643615723</v>
+        <v>33.20099258422852</v>
       </c>
       <c r="D27" t="n">
-        <v>54.14672088623047</v>
+        <v>42.86055374145508</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>41.8638916015625</v>
+        <v>38.7255973815918</v>
       </c>
       <c r="C28" t="n">
-        <v>31.34955024719238</v>
+        <v>34.38127899169922</v>
       </c>
       <c r="D28" t="n">
-        <v>52.37823486328125</v>
+        <v>43.06991577148438</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>42.1268310546875</v>
+        <v>38.03625106811523</v>
       </c>
       <c r="C29" t="n">
-        <v>32.22385787963867</v>
+        <v>34.03468704223633</v>
       </c>
       <c r="D29" t="n">
-        <v>52.02980422973633</v>
+        <v>42.03781509399414</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>42.25305938720703</v>
+        <v>37.92303466796875</v>
       </c>
       <c r="C30" t="n">
-        <v>31.89695739746094</v>
+        <v>34.20933532714844</v>
       </c>
       <c r="D30" t="n">
-        <v>52.60916137695312</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>43.16165924072266</v>
-      </c>
-      <c r="C31" t="n">
-        <v>33.57836532592773</v>
-      </c>
-      <c r="D31" t="n">
-        <v>52.74495315551758</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>44.0219841003418</v>
-      </c>
-      <c r="C32" t="n">
-        <v>35.07638931274414</v>
-      </c>
-      <c r="D32" t="n">
-        <v>52.96757888793945</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>44.36146926879883</v>
-      </c>
-      <c r="C33" t="n">
-        <v>35.06021118164062</v>
-      </c>
-      <c r="D33" t="n">
-        <v>53.66272735595703</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>42.5664176940918</v>
-      </c>
-      <c r="C34" t="n">
-        <v>33.77583312988281</v>
-      </c>
-      <c r="D34" t="n">
-        <v>51.35700225830078</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>42.62646102905273</v>
-      </c>
-      <c r="C35" t="n">
-        <v>34.30263519287109</v>
-      </c>
-      <c r="D35" t="n">
-        <v>50.95028686523438</v>
+        <v>41.63673400878906</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>39.41919593811035</v>
+        <v>38.7982292175293</v>
       </c>
       <c r="C2" t="n">
-        <v>35.02847713526189</v>
+        <v>35.38233947753906</v>
       </c>
       <c r="D2" t="n">
-        <v>43.80991474095881</v>
+        <v>42.21411895751953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>38.04353790283203</v>
+        <v>38.85979461669922</v>
       </c>
       <c r="C3" t="n">
-        <v>33.67741290393624</v>
+        <v>35.33976745605469</v>
       </c>
       <c r="D3" t="n">
-        <v>42.40966290172781</v>
+        <v>42.37982177734375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>46.0371696472168</v>
+        <v>39.0010871887207</v>
       </c>
       <c r="C4" t="n">
-        <v>43.1995652809219</v>
+        <v>35.38878631591797</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8747740135117</v>
+        <v>42.61338806152344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>45.02291107177734</v>
+        <v>39.21866989135742</v>
       </c>
       <c r="C5" t="n">
-        <v>40.10285015806667</v>
+        <v>35.30915069580078</v>
       </c>
       <c r="D5" t="n">
-        <v>49.94297198548802</v>
+        <v>43.12818908691406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>45.24387321472168</v>
+        <v>39.28643798828125</v>
       </c>
       <c r="C6" t="n">
-        <v>36.99786233482858</v>
+        <v>35.48919677734375</v>
       </c>
       <c r="D6" t="n">
-        <v>53.48988409461479</v>
+        <v>43.08367919921875</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>41.19174957275391</v>
+        <v>39.96889495849609</v>
       </c>
       <c r="C2" t="n">
-        <v>37.67824935913086</v>
+        <v>34.40840911865234</v>
       </c>
       <c r="D2" t="n">
-        <v>44.70524978637695</v>
+        <v>45.52938079833984</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>41.2951545715332</v>
+        <v>39.43726348876953</v>
       </c>
       <c r="C3" t="n">
-        <v>36.31509399414062</v>
+        <v>34.01850509643555</v>
       </c>
       <c r="D3" t="n">
-        <v>46.27521514892578</v>
+        <v>44.85602188110352</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>42.21242523193359</v>
+        <v>38.56739044189453</v>
       </c>
       <c r="C4" t="n">
-        <v>37.92704772949219</v>
+        <v>32.00873947143555</v>
       </c>
       <c r="D4" t="n">
-        <v>46.497802734375</v>
+        <v>45.12604141235352</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>42.64980697631836</v>
+        <v>37.97086715698242</v>
       </c>
       <c r="C5" t="n">
-        <v>38.60471343994141</v>
+        <v>32.28738403320312</v>
       </c>
       <c r="D5" t="n">
-        <v>46.69490051269531</v>
+        <v>43.65435028076172</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>43.03427886962891</v>
+        <v>37.91504669189453</v>
       </c>
       <c r="C6" t="n">
-        <v>38.34631729125977</v>
+        <v>32.95847702026367</v>
       </c>
       <c r="D6" t="n">
-        <v>47.72224044799805</v>
+        <v>42.87161636352539</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>43.49348068237305</v>
+        <v>38.94481658935547</v>
       </c>
       <c r="C7" t="n">
-        <v>39.78554534912109</v>
+        <v>32.9326171875</v>
       </c>
       <c r="D7" t="n">
-        <v>47.201416015625</v>
+        <v>44.95701599121094</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>43.90556716918945</v>
+        <v>39.59011840820312</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3051872253418</v>
+        <v>34.13834381103516</v>
       </c>
       <c r="D8" t="n">
-        <v>47.50594711303711</v>
+        <v>45.04189300537109</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>43.95841598510742</v>
+        <v>40.20432281494141</v>
       </c>
       <c r="C9" t="n">
-        <v>39.40314102172852</v>
+        <v>33.58615493774414</v>
       </c>
       <c r="D9" t="n">
-        <v>48.51369094848633</v>
+        <v>46.82249069213867</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>43.96755599975586</v>
+        <v>40.85993194580078</v>
       </c>
       <c r="C10" t="n">
-        <v>40.46745681762695</v>
+        <v>34.21833038330078</v>
       </c>
       <c r="D10" t="n">
-        <v>47.46765518188477</v>
+        <v>47.50153350830078</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>44.00264739990234</v>
+        <v>40.0026969909668</v>
       </c>
       <c r="C11" t="n">
-        <v>38.82660293579102</v>
+        <v>32.76376724243164</v>
       </c>
       <c r="D11" t="n">
-        <v>49.17869186401367</v>
+        <v>47.24162673950195</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>43.86445236206055</v>
+        <v>40.42887496948242</v>
       </c>
       <c r="C12" t="n">
-        <v>38.57804107666016</v>
+        <v>33.99057769775391</v>
       </c>
       <c r="D12" t="n">
-        <v>49.15086364746094</v>
+        <v>46.86717224121094</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>43.66369247436523</v>
+        <v>39.6186637878418</v>
       </c>
       <c r="C13" t="n">
-        <v>39.72162246704102</v>
+        <v>30.91632080078125</v>
       </c>
       <c r="D13" t="n">
-        <v>47.60576248168945</v>
+        <v>48.32100677490234</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>43.2298698425293</v>
+        <v>39.2864875793457</v>
       </c>
       <c r="C14" t="n">
-        <v>38.8654899597168</v>
+        <v>29.83320617675781</v>
       </c>
       <c r="D14" t="n">
-        <v>47.5942497253418</v>
+        <v>48.73976898193359</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>43.50115203857422</v>
+        <v>39.30123519897461</v>
       </c>
       <c r="C15" t="n">
-        <v>39.05274963378906</v>
+        <v>30.71315383911133</v>
       </c>
       <c r="D15" t="n">
-        <v>47.94955444335938</v>
+        <v>47.88931655883789</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>43.61835098266602</v>
+        <v>39.59671401977539</v>
       </c>
       <c r="C16" t="n">
-        <v>39.67809677124023</v>
+        <v>31.3235969543457</v>
       </c>
       <c r="D16" t="n">
-        <v>47.5586051940918</v>
+        <v>47.86983108520508</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>43.7867431640625</v>
+        <v>39.40044021606445</v>
       </c>
       <c r="C17" t="n">
-        <v>39.31761169433594</v>
+        <v>30.56738471984863</v>
       </c>
       <c r="D17" t="n">
-        <v>48.25587463378906</v>
+        <v>48.23349761962891</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>43.99118041992188</v>
+        <v>39.6332893371582</v>
       </c>
       <c r="C18" t="n">
-        <v>39.72825622558594</v>
+        <v>31.43949890136719</v>
       </c>
       <c r="D18" t="n">
-        <v>48.25410461425781</v>
+        <v>47.82707977294922</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>43.75182342529297</v>
+        <v>40.14823532104492</v>
       </c>
       <c r="C19" t="n">
-        <v>39.37760543823242</v>
+        <v>32.90644836425781</v>
       </c>
       <c r="D19" t="n">
-        <v>48.12604141235352</v>
+        <v>47.39002227783203</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>43.80216217041016</v>
+        <v>39.49301528930664</v>
       </c>
       <c r="C20" t="n">
-        <v>40.45979309082031</v>
+        <v>34.02090072631836</v>
       </c>
       <c r="D20" t="n">
-        <v>47.14453125</v>
+        <v>44.96512985229492</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>44.14982986450195</v>
+        <v>38.81308364868164</v>
       </c>
       <c r="C21" t="n">
-        <v>40.65010833740234</v>
+        <v>34.14438247680664</v>
       </c>
       <c r="D21" t="n">
-        <v>47.64955139160156</v>
+        <v>43.48178482055664</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>43.66941070556641</v>
+        <v>38.73569488525391</v>
       </c>
       <c r="C22" t="n">
-        <v>40.04877090454102</v>
+        <v>34.75667572021484</v>
       </c>
       <c r="D22" t="n">
-        <v>47.2900505065918</v>
+        <v>42.71471405029297</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>43.61557769775391</v>
+        <v>38.13571929931641</v>
       </c>
       <c r="C23" t="n">
-        <v>38.10272216796875</v>
+        <v>33.64066314697266</v>
       </c>
       <c r="D23" t="n">
-        <v>49.12843322753906</v>
+        <v>42.63077545166016</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>43.99950408935547</v>
+        <v>37.66168975830078</v>
       </c>
       <c r="C24" t="n">
-        <v>38.78753280639648</v>
+        <v>32.09201431274414</v>
       </c>
       <c r="D24" t="n">
-        <v>49.21147537231445</v>
+        <v>43.23136520385742</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>43.75135803222656</v>
+        <v>38.18709945678711</v>
       </c>
       <c r="C25" t="n">
-        <v>38.35283279418945</v>
+        <v>32.64848709106445</v>
       </c>
       <c r="D25" t="n">
-        <v>49.14988327026367</v>
+        <v>43.72571182250977</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>43.76860809326172</v>
+        <v>37.8648796081543</v>
       </c>
       <c r="C26" t="n">
-        <v>39.006103515625</v>
+        <v>31.94451522827148</v>
       </c>
       <c r="D26" t="n">
-        <v>48.53111267089844</v>
+        <v>43.78524398803711</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>43.92646789550781</v>
+        <v>37.26601409912109</v>
       </c>
       <c r="C27" t="n">
-        <v>39.90882873535156</v>
+        <v>31.36691856384277</v>
       </c>
       <c r="D27" t="n">
-        <v>47.94410705566406</v>
+        <v>43.16510772705078</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>43.79654693603516</v>
+        <v>36.9748420715332</v>
       </c>
       <c r="C28" t="n">
-        <v>39.3051872253418</v>
+        <v>29.74954032897949</v>
       </c>
       <c r="D28" t="n">
-        <v>48.28790664672852</v>
+        <v>44.20014190673828</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>43.95641326904297</v>
+        <v>37.72125244140625</v>
       </c>
       <c r="C29" t="n">
-        <v>38.99300003051758</v>
+        <v>32.32533264160156</v>
       </c>
       <c r="D29" t="n">
-        <v>48.91982650756836</v>
+        <v>43.11717224121094</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>44.02256393432617</v>
+        <v>37.80726623535156</v>
       </c>
       <c r="C30" t="n">
-        <v>39.38065719604492</v>
+        <v>32.39444351196289</v>
       </c>
       <c r="D30" t="n">
-        <v>48.66447067260742</v>
+        <v>43.22008895874023</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>43.78947448730469</v>
+        <v>37.75269317626953</v>
       </c>
       <c r="C31" t="n">
-        <v>39.27984619140625</v>
+        <v>32.12867736816406</v>
       </c>
       <c r="D31" t="n">
-        <v>48.29910278320312</v>
+        <v>43.376708984375</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>43.32585525512695</v>
+        <v>38.01779937744141</v>
       </c>
       <c r="C32" t="n">
-        <v>37.94860076904297</v>
+        <v>31.6322021484375</v>
       </c>
       <c r="D32" t="n">
-        <v>48.70310974121094</v>
+        <v>44.40339660644531</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>43.33743286132812</v>
+        <v>38.15507888793945</v>
       </c>
       <c r="C33" t="n">
-        <v>37.97166061401367</v>
+        <v>31.29662895202637</v>
       </c>
       <c r="D33" t="n">
-        <v>48.70320510864258</v>
+        <v>45.01352691650391</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>43.18555450439453</v>
+        <v>38.62216949462891</v>
       </c>
       <c r="C34" t="n">
-        <v>37.52548980712891</v>
+        <v>31.64264678955078</v>
       </c>
       <c r="D34" t="n">
-        <v>48.84561920166016</v>
+        <v>45.60169219970703</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>42.9374885559082</v>
+        <v>38.62572479248047</v>
       </c>
       <c r="C35" t="n">
-        <v>37.53656005859375</v>
+        <v>31.52532196044922</v>
       </c>
       <c r="D35" t="n">
-        <v>48.33841705322266</v>
+        <v>45.72612762451172</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>38.43945121765137</v>
+        <v>35.43393096923828</v>
       </c>
       <c r="C2" t="n">
-        <v>33.89895976049895</v>
+        <v>31.3365111799536</v>
       </c>
       <c r="D2" t="n">
-        <v>42.97994267480378</v>
+        <v>39.53135075852297</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>41.20536308288574</v>
+        <v>39.61160125732422</v>
       </c>
       <c r="C3" t="n">
-        <v>36.83474340243108</v>
+        <v>37.93194878902275</v>
       </c>
       <c r="D3" t="n">
-        <v>45.5759827633404</v>
+        <v>41.29125372562569</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>42.90188941955567</v>
+        <v>36.12456665039063</v>
       </c>
       <c r="C4" t="n">
-        <v>38.30738199168822</v>
+        <v>32.61362202950395</v>
       </c>
       <c r="D4" t="n">
-        <v>47.49639684742311</v>
+        <v>39.6355112712773</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>43.0159912109375</v>
+        <v>38.24008903503418</v>
       </c>
       <c r="C5" t="n">
-        <v>37.04725625154785</v>
+        <v>31.00369745523375</v>
       </c>
       <c r="D5" t="n">
-        <v>48.98472617032715</v>
+        <v>45.47648061483461</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>42.6921688079834</v>
+        <v>39.10950431823731</v>
       </c>
       <c r="C6" t="n">
-        <v>40.58885641281318</v>
+        <v>33.63351425266868</v>
       </c>
       <c r="D6" t="n">
-        <v>44.79548120315362</v>
+        <v>44.58549438380593</v>
       </c>
     </row>
   </sheetData>
